--- a/Data.xlsx
+++ b/Data.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -374,7 +375,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
